--- a/charts/p16/p16_data.xlsx
+++ b/charts/p16/p16_data.xlsx
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-04 15:26:26</t>
+          <t>2025-11-04 18:21:01</t>
         </is>
       </c>
     </row>

--- a/charts/p16/p16_data.xlsx
+++ b/charts/p16/p16_data.xlsx
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.8</v>
+        <v>12.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5.8</v>
+        <v>26.6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>42.3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.1</v>
+        <v>25</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18.6</v>
+        <v>46.8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-04 18:21:01</t>
+          <t>2025-11-10 18:29:14</t>
         </is>
       </c>
     </row>

--- a/charts/p16/p16_data.xlsx
+++ b/charts/p16/p16_data.xlsx
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-10 18:29:14</t>
+          <t>2025-11-10 18:53:36</t>
         </is>
       </c>
     </row>

--- a/charts/p16/p16_data.xlsx
+++ b/charts/p16/p16_data.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -811,11 +811,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12.3</v>
+        <v>46.8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -861,7 +861,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -886,7 +886,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -911,11 +911,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>26.6</v>
+        <v>42.3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -961,7 +961,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42.3</v>
+        <v>12.3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Blog</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Blog</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Blog</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Blog</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>26.6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46.8</v>
+        <v>25</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-10 18:53:36</t>
+          <t>2025-11-10 20:09:00</t>
         </is>
       </c>
     </row>

--- a/charts/p16/p16_data.xlsx
+++ b/charts/p16/p16_data.xlsx
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-10 20:09:00</t>
+          <t>2025-11-10 20:18:36</t>
         </is>
       </c>
     </row>
